--- a/biology/Zoologie/Beierowithius_sieboldtii/Beierowithius_sieboldtii.xlsx
+++ b/biology/Zoologie/Beierowithius_sieboldtii/Beierowithius_sieboldtii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beierowithius
 Beierowithius sieboldtii, unique représentant du genre Beierowithius, est une espèce fossile de pseudoscorpions de la famille des Withiidae.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de la mer Baltique, en Pologne et en Russie[2]. Elle date de l'Éocène[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de la mer Baltique, en Pologne et en Russie. Elle date de l'Éocène.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Max Beier[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Max Beier.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>C. L. Koch &amp; Berendt, 1854 : Die im Bernstein befindlichen Crustaceen, Myriapoden, Arachniden und Apteren der Vorwelt. Die in Berstein befindlichen Organischen Reste der Vorwelt. Berlin, vol. 1, no 2, p. 1-124.
 Mahnert, 1979 : Pseudoskorpione (Arachnida) aus dem Amazonas-Gebiet (Brasilien). Revue Suisse de Zoologie, vol. 86, no 3, p. 719-810 (texte intégral).
